--- a/_CaltexGoPH/src/test/resources/Local Datasheets/ProfileManagement_MyAccount.xlsx
+++ b/_CaltexGoPH/src/test/resources/Local Datasheets/ProfileManagement_MyAccount.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patricio.c.calacasan\eclipse-workspace\CaltexGo Mobile Automation\_CaltexGoPH\src\test\resources\Local Datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mobile Automation\Git Repository\CaltexGoPH\_CaltexGoPH\src\test\resources\Local Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF7EB1-B4E1-45CE-AABA-DA8965C8B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BA9FFB-9FBC-4A77-A686-0321BBBD3C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>New First Name</t>
   </si>
   <si>
     <t>New Last Name</t>
+  </si>
+  <si>
+    <t>First Name_Invalid</t>
+  </si>
+  <si>
+    <t>New First Name_Invalid</t>
+  </si>
+  <si>
+    <t>New Last Name_Invalid</t>
+  </si>
+  <si>
+    <t>Last Name_Invalid</t>
   </si>
 </sst>
 </file>
@@ -360,34 +372,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="39.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="21.26953125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f ca="1">"First Name "&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>First Name IJWGGEM</v>
+        <v>First Name SGVIRZA</v>
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">"Last Name "&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>Last Name FNVYVI</v>
+        <v>Last Name MESQGT</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
